--- a/biology/Zoologie/Dolichoderus/Dolichoderus.xlsx
+++ b/biology/Zoologie/Dolichoderus/Dolichoderus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dolichoderus est un genre d'insectes hyménoptères de la famille des Formicidés (fourmis) et de la sous-famille des Dolichoderinae, dans la tribu des Dolichoderini. 
 </t>
@@ -511,11 +523,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Dolichoderus est décrit en 1831 par le zoologiste et paléontologue danois Peter Wilhelm Lund (1801-1880).
-Synonymes
-Acanthoclinea Wheeler, W.M., 1935
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Dolichoderus est décrit en 1831 par le zoologiste et paléontologue danois Peter Wilhelm Lund (1801-1880).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dolichoderus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichoderus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Acanthoclinea Wheeler, W.M., 1935
 Diabolus Karavaiev, 1926
 Diceratoclinea Wheeler, W.M., 1935
 Hypoclinea Mayr, 1855
@@ -525,37 +574,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Dolichoderus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dolichoderus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Présentation</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est présent sur plusieurs continents et principalement tropical[1]. Les ouvrières sont de taille moyenne et plutôt lentes par rapport aux autres Dolichoderinae[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -577,10 +595,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est présent sur plusieurs continents et principalement tropical. Les ouvrières sont de taille moyenne et plutôt lentes par rapport aux autres Dolichoderinae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dolichoderus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichoderus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 †Dolichoderus (Hypoclinea) passalomma Wheeler 1915
@@ -638,31 +691,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Dolichoderus</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dolichoderus</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Liste des espèces du genre Dolichoderus.
